--- a/软维组日常工作记录跟踪表/软维组工作计划跟踪表汇总_yj_20150910.xlsx
+++ b/软维组日常工作记录跟踪表/软维组工作计划跟踪表汇总_yj_20150910.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2245" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2274" uniqueCount="716">
   <si>
     <t>SN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2785,7 +2785,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>事实开发完毕，金额段可以任意选择。数据从2014.1.1开始，剔除6789和大类数据可出</t>
+    <t>事实开发完毕，金额段可以任意选择。数据从2014.1.1开始，剔除6789和大类数据可出，大类编码必须单选。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ODI接口：SIL_RetailSalesPackTempLoad修改IKM参数：ANALYZE_TARGET,由真修改为假。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨日金立日结失败，导致销售成本为0.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除RA金立家电的商品销售和供应商销售，重新插入。准备好脚本，以便处理下次问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨天120033有销售数据，sa_tran_item.ref_no5为99，称上折扣应该是折扣到小票上而不是折扣到商品上。传入RA时，99吃不进。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改前台POS程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15，16二天的销售数据，没有出清销售，因为门店POS程序原因。需要修复这二天的RA销售数据.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RA删除销售数据，重新导入销售数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RA报表大类上一级调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改报表，采用case when，生鲜一部、二部。。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动应该端数据提供。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从RA中抽取数据插入移动CSMB数据库，4个table，每晚日结自动抽取数据插入，日结添加CMX_RA_CSMB.KSH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6563,8 +6635,8 @@
   <dimension ref="A1:H128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F76" sqref="F76"/>
+      <pane ySplit="2" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H84" sqref="H84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8309,7 +8381,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:8" ht="81" x14ac:dyDescent="0.15">
       <c r="A77" s="2">
         <v>75</v>
       </c>
@@ -8335,77 +8407,159 @@
         <v>697</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A78" s="2">
         <v>76</v>
       </c>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
+      <c r="B78" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="F78" s="4">
+        <v>42257</v>
+      </c>
+      <c r="G78" s="4">
+        <v>42257</v>
+      </c>
       <c r="H78" s="2"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A79" s="2">
         <v>77</v>
       </c>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B79" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="F79" s="4">
+        <v>42261</v>
+      </c>
+      <c r="G79" s="4">
+        <v>42261</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A80" s="2">
         <v>78</v>
       </c>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B80" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="F80" s="4">
+        <v>42262</v>
+      </c>
+      <c r="G80" s="4">
+        <v>42264</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A81" s="2">
         <v>79</v>
       </c>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B81" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F81" s="4">
+        <v>42264</v>
+      </c>
+      <c r="G81" s="4">
+        <v>42264</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A82" s="2">
         <v>80</v>
       </c>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B82" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F82" s="4">
+        <v>42285</v>
+      </c>
+      <c r="G82" s="4">
+        <v>42286</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="81" x14ac:dyDescent="0.15">
       <c r="A83" s="2">
         <v>81</v>
       </c>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
+      <c r="B83" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="F83" s="4">
+        <v>42287</v>
+      </c>
+      <c r="G83" s="4">
+        <v>42297</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>715</v>
+      </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A84" s="2">
